--- a/results/all_K.xlsx
+++ b/results/all_K.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamossolomou/Desktop/Fourth Year EEE/High Performance Computing /hpce-2017-cw2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="all" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="all" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="61" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -73,10 +74,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,11 +166,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Direc</a:t>
+              <a:t>Direct DFT Time vs Chunk size</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>t Fourier Transform Parallel Inner Loop</a:t>
+              <a:t> K (for various n)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -797,11 +804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146676608"/>
-        <c:axId val="2123963712"/>
+        <c:axId val="321132480"/>
+        <c:axId val="321135424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146676608"/>
+        <c:axId val="321132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,12 +920,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123963712"/>
+        <c:crossAx val="321135424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123963712"/>
+        <c:axId val="321135424"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1036,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146676608"/>
+        <c:crossAx val="321132480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1109,11 +1116,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1673,25 +1675,29 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306560" cy="6065520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1704,7 +1710,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8249,7 +8255,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -8683,8 +8689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9071,8 +9077,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9080,7 +9087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A27" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B698" sqref="B698"/>
     </sheetView>
   </sheetViews>
